--- a/output/RGG/Report_RGG_2025-01-22.xlsx
+++ b/output/RGG/Report_RGG_2025-01-22.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="81">
   <si>
     <t>კომპანია</t>
   </si>
@@ -65,6 +65,9 @@
     <t>თანხა</t>
   </si>
   <si>
+    <t>ანგარიშის ნომერი</t>
+  </si>
+  <si>
     <t>კატეგორია</t>
   </si>
   <si>
@@ -233,13 +236,22 @@
     <t>TRN</t>
   </si>
   <si>
+    <t>GE73BG0000000315815200</t>
+  </si>
+  <si>
     <t>EUR</t>
   </si>
   <si>
     <t>პროცენტის დაფარვა, სესხი N 9867061</t>
   </si>
   <si>
+    <t>სავალუტო სხვაობა - GE73BG0000000315815200</t>
+  </si>
+  <si>
     <t>ვალუტის გაცვლითი ოპერაცია. კურსი:2.987 კონტრთანხა: GEL41,220.6. ვალუტის გაცვლა</t>
+  </si>
+  <si>
+    <t>კურსთაშორისი სხვაობა</t>
   </si>
   <si>
     <t>LND</t>
@@ -275,12 +287,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -310,12 +328,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,13 +629,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM21"/>
+  <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -734,22 +753,25 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:39">
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2">
         <v>45679</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2">
         <v>537.1799999999999</v>
@@ -761,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M2">
         <v>134430.54</v>
@@ -778,22 +800,25 @@
       <c r="O2">
         <v>-537.1799999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:39">
+      <c r="P2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2">
         <v>45679</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3">
         <v>568</v>
@@ -805,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M3">
         <v>134430.54</v>
@@ -822,22 +847,25 @@
       <c r="O3">
         <v>-568</v>
       </c>
-    </row>
-    <row r="4" spans="1:39">
+      <c r="P3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2">
         <v>45679</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F4">
         <v>623.22</v>
@@ -849,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M4">
         <v>134430.54</v>
@@ -866,22 +894,25 @@
       <c r="O4">
         <v>-623.22</v>
       </c>
-    </row>
-    <row r="5" spans="1:39">
+      <c r="P4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2">
         <v>45679</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F5">
         <v>1402</v>
@@ -893,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M5">
         <v>134430.54</v>
@@ -910,22 +941,25 @@
       <c r="O5">
         <v>-1402</v>
       </c>
-    </row>
-    <row r="6" spans="1:39">
+      <c r="P5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2">
         <v>45679</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F6">
         <v>41220.6</v>
@@ -937,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M6">
         <v>134430.54</v>
@@ -954,22 +988,25 @@
       <c r="O6">
         <v>-41220.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:39">
+      <c r="P6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2">
         <v>45679</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -981,13 +1018,13 @@
         <v>19.91</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M7">
         <v>134430.54</v>
@@ -998,22 +1035,25 @@
       <c r="O7">
         <v>19.91</v>
       </c>
-    </row>
-    <row r="8" spans="1:39">
+      <c r="P7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2">
         <v>45679</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1025,13 +1065,13 @@
         <v>29.87</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M8">
         <v>134430.54</v>
@@ -1042,22 +1082,25 @@
       <c r="O8">
         <v>29.87</v>
       </c>
-    </row>
-    <row r="9" spans="1:39">
+      <c r="P8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2">
         <v>45679</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1069,13 +1112,13 @@
         <v>39.83</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M9">
         <v>134430.54</v>
@@ -1086,22 +1129,25 @@
       <c r="O9">
         <v>39.83</v>
       </c>
-    </row>
-    <row r="10" spans="1:39">
+      <c r="P9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2">
         <v>45679</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1113,13 +1159,13 @@
         <v>58.25</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M10">
         <v>134430.54</v>
@@ -1130,22 +1176,25 @@
       <c r="O10">
         <v>58.25</v>
       </c>
-    </row>
-    <row r="11" spans="1:39">
+      <c r="P10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2">
         <v>45679</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1157,13 +1206,13 @@
         <v>59.75</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M11">
         <v>134430.54</v>
@@ -1174,22 +1223,25 @@
       <c r="O11">
         <v>59.75</v>
       </c>
-    </row>
-    <row r="12" spans="1:39">
+      <c r="P11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2">
         <v>45679</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1201,13 +1253,13 @@
         <v>89.63</v>
       </c>
       <c r="J12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M12">
         <v>134430.54</v>
@@ -1218,22 +1270,25 @@
       <c r="O12">
         <v>89.63</v>
       </c>
-    </row>
-    <row r="13" spans="1:39">
+      <c r="P12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2">
         <v>45679</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1245,13 +1300,13 @@
         <v>109.54</v>
       </c>
       <c r="J13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M13">
         <v>134430.54</v>
@@ -1262,22 +1317,25 @@
       <c r="O13">
         <v>109.54</v>
       </c>
-    </row>
-    <row r="14" spans="1:39">
+      <c r="P13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2">
         <v>45679</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1289,13 +1347,13 @@
         <v>119.5</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M14">
         <v>134430.54</v>
@@ -1306,22 +1364,25 @@
       <c r="O14">
         <v>119.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:39">
+      <c r="P14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2">
         <v>45679</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1333,13 +1394,13 @@
         <v>119.51</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M15">
         <v>134430.54</v>
@@ -1350,22 +1411,25 @@
       <c r="O15">
         <v>119.51</v>
       </c>
-    </row>
-    <row r="16" spans="1:39">
+      <c r="P15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2">
         <v>45679</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1377,13 +1441,13 @@
         <v>139.29</v>
       </c>
       <c r="J16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M16">
         <v>134430.54</v>
@@ -1394,22 +1458,25 @@
       <c r="O16">
         <v>139.29</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2">
         <v>45679</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1421,13 +1488,13 @@
         <v>149.39</v>
       </c>
       <c r="J17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M17">
         <v>134430.54</v>
@@ -1438,22 +1505,25 @@
       <c r="O17">
         <v>149.39</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2">
         <v>45679</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1465,13 +1535,13 @@
         <v>277.31</v>
       </c>
       <c r="J18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M18">
         <v>134430.54</v>
@@ -1482,22 +1552,25 @@
       <c r="O18">
         <v>277.31</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2">
         <v>45679</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1509,13 +1582,13 @@
         <v>338.63</v>
       </c>
       <c r="J19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M19">
         <v>134430.54</v>
@@ -1526,22 +1599,25 @@
       <c r="O19">
         <v>338.63</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2">
         <v>45679</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1553,13 +1629,13 @@
         <v>507.93</v>
       </c>
       <c r="J20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M20">
         <v>134430.54</v>
@@ -1570,22 +1646,25 @@
       <c r="O20">
         <v>507.93</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2">
         <v>45679</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1597,13 +1676,13 @@
         <v>717.0700000000001</v>
       </c>
       <c r="J21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M21">
         <v>134430.54</v>
@@ -1613,6 +1692,9 @@
       </c>
       <c r="O21">
         <v>717.0700000000001</v>
+      </c>
+      <c r="P21" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1622,13 +1704,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM4"/>
+  <dimension ref="A1:AN5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1746,22 +1828,25 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:39">
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2">
         <v>45679</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2">
         <v>6739.73</v>
@@ -1773,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" t="s">
         <v>74</v>
-      </c>
-      <c r="L2" t="s">
-        <v>72</v>
       </c>
       <c r="M2">
         <v>842.25</v>
@@ -1790,22 +1875,25 @@
       <c r="O2">
         <v>-6739.73</v>
       </c>
-    </row>
-    <row r="3" spans="1:39">
+      <c r="P2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2">
         <v>45679</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3">
         <v>6739.73</v>
@@ -1817,13 +1905,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" t="s">
         <v>74</v>
-      </c>
-      <c r="L3" t="s">
-        <v>72</v>
       </c>
       <c r="M3">
         <v>842.25</v>
@@ -1834,22 +1922,25 @@
       <c r="O3">
         <v>-6739.73</v>
       </c>
-    </row>
-    <row r="4" spans="1:39">
+      <c r="P3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2">
         <v>45679</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1861,13 +1952,13 @@
         <v>40732.08</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M4">
         <v>842.25</v>
@@ -1877,6 +1968,32 @@
       </c>
       <c r="O4">
         <v>13800</v>
+      </c>
+      <c r="P4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" s="3" customFormat="1">
+      <c r="A5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45679</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1886,13 +2003,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM1"/>
+  <dimension ref="A1:AN1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2009,6 +2126,9 @@
       </c>
       <c r="AM1" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2018,13 +2138,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM1"/>
+  <dimension ref="A1:AN1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2141,6 +2261,9 @@
       </c>
       <c r="AM1" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2150,13 +2273,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN24"/>
+  <dimension ref="A1:AO25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2275,24 +2398,27 @@
         <v>38</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2">
         <v>45679</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2">
         <v>537.1799999999999</v>
@@ -2304,13 +2430,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M2">
         <v>134430.54</v>
@@ -2321,25 +2447,28 @@
       <c r="O2">
         <v>-537.1799999999999</v>
       </c>
-      <c r="AN2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+      <c r="P2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2">
         <v>45679</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3">
         <v>568</v>
@@ -2351,13 +2480,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M3">
         <v>134430.54</v>
@@ -2368,25 +2497,28 @@
       <c r="O3">
         <v>-568</v>
       </c>
-      <c r="AN3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
+      <c r="P3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2">
         <v>45679</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F4">
         <v>623.22</v>
@@ -2398,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M4">
         <v>134430.54</v>
@@ -2415,25 +2547,28 @@
       <c r="O4">
         <v>-623.22</v>
       </c>
-      <c r="AN4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
+      <c r="P4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2">
         <v>45679</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F5">
         <v>1402</v>
@@ -2445,13 +2580,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M5">
         <v>134430.54</v>
@@ -2462,25 +2597,28 @@
       <c r="O5">
         <v>-1402</v>
       </c>
-      <c r="AN5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40">
+      <c r="P5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2">
         <v>45679</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F6">
         <v>41220.6</v>
@@ -2492,13 +2630,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M6">
         <v>134430.54</v>
@@ -2509,25 +2647,28 @@
       <c r="O6">
         <v>-41220.6</v>
       </c>
-      <c r="AN6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
+      <c r="P6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2">
         <v>45679</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2539,13 +2680,13 @@
         <v>19.91</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M7">
         <v>134430.54</v>
@@ -2556,25 +2697,28 @@
       <c r="O7">
         <v>19.91</v>
       </c>
-      <c r="AN7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+      <c r="P7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2">
         <v>45679</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2586,13 +2730,13 @@
         <v>29.87</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M8">
         <v>134430.54</v>
@@ -2603,25 +2747,28 @@
       <c r="O8">
         <v>29.87</v>
       </c>
-      <c r="AN8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
+      <c r="P8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2">
         <v>45679</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2633,13 +2780,13 @@
         <v>39.83</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M9">
         <v>134430.54</v>
@@ -2650,25 +2797,28 @@
       <c r="O9">
         <v>39.83</v>
       </c>
-      <c r="AN9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
+      <c r="P9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2">
         <v>45679</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2680,13 +2830,13 @@
         <v>58.25</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M10">
         <v>134430.54</v>
@@ -2697,25 +2847,28 @@
       <c r="O10">
         <v>58.25</v>
       </c>
-      <c r="AN10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
+      <c r="P10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2">
         <v>45679</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2727,13 +2880,13 @@
         <v>59.75</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M11">
         <v>134430.54</v>
@@ -2744,25 +2897,28 @@
       <c r="O11">
         <v>59.75</v>
       </c>
-      <c r="AN11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40">
+      <c r="P11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2">
         <v>45679</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2774,13 +2930,13 @@
         <v>89.63</v>
       </c>
       <c r="J12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M12">
         <v>134430.54</v>
@@ -2791,25 +2947,28 @@
       <c r="O12">
         <v>89.63</v>
       </c>
-      <c r="AN12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40">
+      <c r="P12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2">
         <v>45679</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2821,13 +2980,13 @@
         <v>109.54</v>
       </c>
       <c r="J13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M13">
         <v>134430.54</v>
@@ -2838,25 +2997,28 @@
       <c r="O13">
         <v>109.54</v>
       </c>
-      <c r="AN13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40">
+      <c r="P13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2">
         <v>45679</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2868,13 +3030,13 @@
         <v>119.5</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M14">
         <v>134430.54</v>
@@ -2885,25 +3047,28 @@
       <c r="O14">
         <v>119.5</v>
       </c>
-      <c r="AN14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40">
+      <c r="P14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2">
         <v>45679</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2915,13 +3080,13 @@
         <v>119.51</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M15">
         <v>134430.54</v>
@@ -2932,25 +3097,28 @@
       <c r="O15">
         <v>119.51</v>
       </c>
-      <c r="AN15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40">
+      <c r="P15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2">
         <v>45679</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2962,13 +3130,13 @@
         <v>139.29</v>
       </c>
       <c r="J16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M16">
         <v>134430.54</v>
@@ -2979,25 +3147,28 @@
       <c r="O16">
         <v>139.29</v>
       </c>
-      <c r="AN16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:40">
+      <c r="P16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2">
         <v>45679</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -3009,13 +3180,13 @@
         <v>149.39</v>
       </c>
       <c r="J17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M17">
         <v>134430.54</v>
@@ -3026,25 +3197,28 @@
       <c r="O17">
         <v>149.39</v>
       </c>
-      <c r="AN17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:40">
+      <c r="P17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2">
         <v>45679</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3056,13 +3230,13 @@
         <v>277.31</v>
       </c>
       <c r="J18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M18">
         <v>134430.54</v>
@@ -3073,25 +3247,28 @@
       <c r="O18">
         <v>277.31</v>
       </c>
-      <c r="AN18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40">
+      <c r="P18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2">
         <v>45679</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -3103,13 +3280,13 @@
         <v>338.63</v>
       </c>
       <c r="J19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M19">
         <v>134430.54</v>
@@ -3120,25 +3297,28 @@
       <c r="O19">
         <v>338.63</v>
       </c>
-      <c r="AN19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40">
+      <c r="P19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2">
         <v>45679</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3150,13 +3330,13 @@
         <v>507.93</v>
       </c>
       <c r="J20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M20">
         <v>134430.54</v>
@@ -3167,25 +3347,28 @@
       <c r="O20">
         <v>507.93</v>
       </c>
-      <c r="AN20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:40">
+      <c r="P20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2">
         <v>45679</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -3197,13 +3380,13 @@
         <v>717.0700000000001</v>
       </c>
       <c r="J21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M21">
         <v>134430.54</v>
@@ -3214,25 +3397,28 @@
       <c r="O21">
         <v>717.0700000000001</v>
       </c>
-      <c r="AN21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:40">
+      <c r="P21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C22" s="2">
         <v>45679</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F22">
         <v>6739.73</v>
@@ -3244,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K22" t="s">
+        <v>78</v>
+      </c>
+      <c r="L22" t="s">
         <v>74</v>
-      </c>
-      <c r="L22" t="s">
-        <v>72</v>
       </c>
       <c r="M22">
         <v>842.25</v>
@@ -3261,25 +3447,28 @@
       <c r="O22">
         <v>-6739.73</v>
       </c>
-      <c r="AN22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:40">
+      <c r="P22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C23" s="2">
         <v>45679</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F23">
         <v>6739.73</v>
@@ -3291,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K23" t="s">
+        <v>78</v>
+      </c>
+      <c r="L23" t="s">
         <v>74</v>
-      </c>
-      <c r="L23" t="s">
-        <v>72</v>
       </c>
       <c r="M23">
         <v>842.25</v>
@@ -3308,25 +3497,28 @@
       <c r="O23">
         <v>-6739.73</v>
       </c>
-      <c r="AN23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:40">
+      <c r="P23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C24" s="2">
         <v>45679</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -3338,13 +3530,13 @@
         <v>40732.08</v>
       </c>
       <c r="J24" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M24">
         <v>842.25</v>
@@ -3355,8 +3547,37 @@
       <c r="O24">
         <v>13800</v>
       </c>
-      <c r="AN24" t="s">
-        <v>76</v>
+      <c r="P24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" s="3" customFormat="1">
+      <c r="A25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="2">
+        <v>45679</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
